--- a/tests/data/unittest_testset_aanvullende_regels.xlsx
+++ b/tests/data/unittest_testset_aanvullende_regels.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GITLAB\solvency2-rules\solvency2-rules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan_h_000\Documents\DNB\Python\solvency2-rules\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5712F9C-D0D0-418B-95D0-EF84C91D9E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="3285"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,6 +28,126 @@
     <t>ControleRegelType</t>
   </si>
   <si>
+    <t>Formule</t>
+  </si>
+  <si>
+    <t>Meldtekst</t>
+  </si>
+  <si>
+    <t>Standaard</t>
+  </si>
+  <si>
+    <t>TolerantieType</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>S.01.01.02.01</t>
+  </si>
+  <si>
+    <t>S.02.01.01.01</t>
+  </si>
+  <si>
+    <t>S.05.01.02.01</t>
+  </si>
+  <si>
+    <t>S.06.03.01.01</t>
+  </si>
+  <si>
+    <t>S.17.01.02.01</t>
+  </si>
+  <si>
+    <t>S.28.01.01.01</t>
+  </si>
+  <si>
+    <t>S.28.01.01.05</t>
+  </si>
+  <si>
+    <t>(0040;0780)</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>(0010;0020;0030;0040;0050;0060;0070;0080;0090;0100;0110;0120;0130;0140;0150;0160)</t>
+  </si>
+  <si>
+    <t>(0010;0020;0030;0040;0050;0060;0070;0080;0090;0100;0110;0120;0130;0140;0150;0160;0170)</t>
+  </si>
+  <si>
+    <t>IF {S.01.01.02.01,r0580,c0010} = "REPORTED" THEN {S.01.01.02.01,r0590,c0010} &lt;&gt; "REPORTED"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{S.02.01.01.01,c0010} &gt;= 0 </t>
+  </si>
+  <si>
+    <t>IF {S.05.01.02.01,r0110} &lt;&gt; 0|{S.05.01.02.01,r0310}&lt;&gt;0 THEN {S.05.01.02.01,r0550}&lt;&gt;0</t>
+  </si>
+  <si>
+    <t>IF {S.06.03.01.01,c0010}&lt;&gt;" " THEN {S.06.03.01.01,c0030}&lt;&gt;" "</t>
+  </si>
+  <si>
+    <t>{S.17.01.02.01,r0330} = {S.17.01.02.01,r0050} + {S.17.01.02.01,r0140} + {S.17.01.02.01,r0240}</t>
+  </si>
+  <si>
+    <t>{S.28.01.01.01,r0010,c0010} = MAX(0; {S.28.01.01.02,r0020,c0020}*0.047 ) + MAX(0; {S.28.01.01.02,r0020,c0030} * 0.047 ) + MAX(0; {S.28.01.01.02,r0030,c0020} * 0.131 ) + MAX(0; {S.28.01.01.02,r0030,c0030} * 0.085 ) + MAX(0; {S.28.01.01.02,r0040,c0020} * 0.107 ) + MAX(0; {S.28.01.01.02,r0040,c0030} * 0.075 ) + MAX(0; {S.28.01.01.02,r0050,c0020} * 0.085 ) + MAX(0; {S.28.01.01.02,r0050,c0030} * 0.094 ) + MAX(0; {S.28.01.01.02,r0060,c0020} * 0.075 ) + MAX(0; {S.28.01.01.02,r0060,c0030} * 0.075 ) + MAX(0; {S.28.01.01.02,r0070,c0020} * 0.103 ) + MAX(0; {S.28.01.01.02,r0070,c0030} * 0.14 ) + MAX(0; {S.28.01.01.02,r0080,c0020} * 0.094 ) + MAX(0; {S.28.01.01.02,r0080,c0030} * 0.075 ) + MAX(0; {S.28.01.01.02,r0090,c0020} * 0.103 ) + MAX(0; {S.28.01.01.02,r0090,c0030} * 0.131 ) + MAX(0; {S.28.01.01.02,r0100,c0020} *0.177 ) + MAX(0; {S.28.01.01.02,r0100,c0030} * 0.113 ) + MAX(0; {S.28.01.01.02,r0110,c0020} * 0.113 ) + MAX(0; {S.28.01.01.02,r0110,c0030} * 0.066 ) + MAX(0; {S.28.01.01.02,r0120,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0120,c0030} * 0.085 ) + MAX(0; {S.28.01.01.02,r0130,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0130,c0030} * 0.122 ) + MAX(0; {S.28.01.01.02,r0150,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0150,c0030} * 0.159 ) + MAX(0; {S.28.01.01.02,r0160,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0160,c0030} * 0.159 ) + MAX(0; {S.28.01.01.02,r0170,c0020} *0.186 ) + MAX(0; {S.28.01.01.02,r0170,c0030} * 0.159 ) + MAX(0; {S.28.01.01.02,r0140,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0140,c0030} * 0.159)</t>
+  </si>
+  <si>
+    <t>{S.28.01.01.05,r0320,c0070} = {S.28.01.01.05,r0310,c0070} * 0.45</t>
+  </si>
+  <si>
+    <t>Een van de MCR formulieren is van toepassing</t>
+  </si>
+  <si>
+    <t>Bij defered tax is een negatief bedrag i.p.v. een positief bedrag vermeld</t>
+  </si>
+  <si>
+    <t>Er zijn geen expenses gemeld terwijl er wel een technische voorziening is</t>
+  </si>
+  <si>
+    <t>Underlying asset categoty is niet vermeld</t>
+  </si>
+  <si>
+    <t>Totaal Recoverable from reinsurance contract/SPV and Finite Re after the adjustment for expected losses due to counterparty default komt niet overeen met de optelling van Totaal recoverable from reinsurance/SPV after the adjustment for expected losses due to counterparty default  (R0140) + Totaal recoverable from reinsurance/SPV after the adjustment for expected losses due to counterparty default (R0240)</t>
+  </si>
+  <si>
+    <t>MCRNL Result komt niet overeen met de controletelling</t>
+  </si>
+  <si>
+    <t>Het bedrag vermeld bij de MCR cap (S.28.01.01 R0320 C0070) is ongelijk aan de controletelling 45% van de SCR (S.28.01.01 R0310 C0070*0,45)</t>
+  </si>
+  <si>
+    <t>SOLVENCY</t>
+  </si>
+  <si>
+    <t>XBRL</t>
+  </si>
+  <si>
+    <t>ControleRegelCode</t>
+  </si>
+  <si>
+    <t>S.01.01_112</t>
+  </si>
+  <si>
+    <t>S.02.01_105</t>
+  </si>
+  <si>
+    <t>S.05.01_113</t>
+  </si>
+  <si>
+    <t>S.06.03_100</t>
+  </si>
+  <si>
+    <t>S.17.01_119</t>
+  </si>
+  <si>
+    <t>S.28.01_100</t>
+  </si>
+  <si>
+    <t>S.28.01_104</t>
+  </si>
+  <si>
     <t>HoofdTabel</t>
   </si>
   <si>
@@ -34,132 +155,12 @@
   </si>
   <si>
     <t>Kolommen</t>
-  </si>
-  <si>
-    <t>Formule</t>
-  </si>
-  <si>
-    <t>Meldtekst</t>
-  </si>
-  <si>
-    <t>Standaard</t>
-  </si>
-  <si>
-    <t>TolerantieType</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>S.01.01.02.01</t>
-  </si>
-  <si>
-    <t>S.02.01.01.01</t>
-  </si>
-  <si>
-    <t>S.05.01.02.01</t>
-  </si>
-  <si>
-    <t>S.06.03.01.01</t>
-  </si>
-  <si>
-    <t>S.17.01.02.01</t>
-  </si>
-  <si>
-    <t>S.28.01.01.01</t>
-  </si>
-  <si>
-    <t>S.28.01.01.05</t>
-  </si>
-  <si>
-    <t>(0040;0780)</t>
-  </si>
-  <si>
-    <t>(All)</t>
-  </si>
-  <si>
-    <t>(0010;0020;0030;0040;0050;0060;0070;0080;0090;0100;0110;0120;0130;0140;0150;0160)</t>
-  </si>
-  <si>
-    <t>(0010;0020;0030;0040;0050;0060;0070;0080;0090;0100;0110;0120;0130;0140;0150;0160;0170)</t>
-  </si>
-  <si>
-    <t>IF {S.01.01.02.01,r0580,c0010} = "REPORTED" THEN {S.01.01.02.01,r0590,c0010} &lt;&gt; "REPORTED"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{S.02.01.01.01,c0010} &gt;= 0 </t>
-  </si>
-  <si>
-    <t>IF {S.05.01.02.01,r0110} &lt;&gt; 0|{S.05.01.02.01,r0310}&lt;&gt;0 THEN {S.05.01.02.01,r0550}&lt;&gt;0</t>
-  </si>
-  <si>
-    <t>IF {S.06.03.01.01,c0010}&lt;&gt;" " THEN {S.06.03.01.01,c0030}&lt;&gt;" "</t>
-  </si>
-  <si>
-    <t>{S.17.01.02.01,r0330} = {S.17.01.02.01,r0050} + {S.17.01.02.01,r0140} + {S.17.01.02.01,r0240}</t>
-  </si>
-  <si>
-    <t>{S.28.01.01.01,r0010,c0010} = MAX(0; {S.28.01.01.02,r0020,c0020}*0.047 ) + MAX(0; {S.28.01.01.02,r0020,c0030} * 0.047 ) + MAX(0; {S.28.01.01.02,r0030,c0020} * 0.131 ) + MAX(0; {S.28.01.01.02,r0030,c0030} * 0.085 ) + MAX(0; {S.28.01.01.02,r0040,c0020} * 0.107 ) + MAX(0; {S.28.01.01.02,r0040,c0030} * 0.075 ) + MAX(0; {S.28.01.01.02,r0050,c0020} * 0.085 ) + MAX(0; {S.28.01.01.02,r0050,c0030} * 0.094 ) + MAX(0; {S.28.01.01.02,r0060,c0020} * 0.075 ) + MAX(0; {S.28.01.01.02,r0060,c0030} * 0.075 ) + MAX(0; {S.28.01.01.02,r0070,c0020} * 0.103 ) + MAX(0; {S.28.01.01.02,r0070,c0030} * 0.14 ) + MAX(0; {S.28.01.01.02,r0080,c0020} * 0.094 ) + MAX(0; {S.28.01.01.02,r0080,c0030} * 0.075 ) + MAX(0; {S.28.01.01.02,r0090,c0020} * 0.103 ) + MAX(0; {S.28.01.01.02,r0090,c0030} * 0.131 ) + MAX(0; {S.28.01.01.02,r0100,c0020} *0.177 ) + MAX(0; {S.28.01.01.02,r0100,c0030} * 0.113 ) + MAX(0; {S.28.01.01.02,r0110,c0020} * 0.113 ) + MAX(0; {S.28.01.01.02,r0110,c0030} * 0.066 ) + MAX(0; {S.28.01.01.02,r0120,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0120,c0030} * 0.085 ) + MAX(0; {S.28.01.01.02,r0130,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0130,c0030} * 0.122 ) + MAX(0; {S.28.01.01.02,r0150,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0150,c0030} * 0.159 ) + MAX(0; {S.28.01.01.02,r0160,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0160,c0030} * 0.159 ) + MAX(0; {S.28.01.01.02,r0170,c0020} *0.186 ) + MAX(0; {S.28.01.01.02,r0170,c0030} * 0.159 ) + MAX(0; {S.28.01.01.02,r0140,c0020} * 0.186 ) + MAX(0; {S.28.01.01.02,r0140,c0030} * 0.159)</t>
-  </si>
-  <si>
-    <t>{S.28.01.01.05,r0320,c0070} = {S.28.01.01.05,r0310,c0070} * 0.45</t>
-  </si>
-  <si>
-    <t>Een van de MCR formulieren is van toepassing</t>
-  </si>
-  <si>
-    <t>Bij defered tax is een negatief bedrag i.p.v. een positief bedrag vermeld</t>
-  </si>
-  <si>
-    <t>Er zijn geen expenses gemeld terwijl er wel een technische voorziening is</t>
-  </si>
-  <si>
-    <t>Underlying asset categoty is niet vermeld</t>
-  </si>
-  <si>
-    <t>Totaal Recoverable from reinsurance contract/SPV and Finite Re after the adjustment for expected losses due to counterparty default komt niet overeen met de optelling van Totaal recoverable from reinsurance/SPV after the adjustment for expected losses due to counterparty default  (R0140) + Totaal recoverable from reinsurance/SPV after the adjustment for expected losses due to counterparty default (R0240)</t>
-  </si>
-  <si>
-    <t>MCRNL Result komt niet overeen met de controletelling</t>
-  </si>
-  <si>
-    <t>Het bedrag vermeld bij de MCR cap (S.28.01.01 R0320 C0070) is ongelijk aan de controletelling 45% van de SCR (S.28.01.01 R0310 C0070*0,45)</t>
-  </si>
-  <si>
-    <t>SOLVENCY</t>
-  </si>
-  <si>
-    <t>XBRL</t>
-  </si>
-  <si>
-    <t>ControleRegelCode</t>
-  </si>
-  <si>
-    <t>S.01.01_112</t>
-  </si>
-  <si>
-    <t>S.02.01_105</t>
-  </si>
-  <si>
-    <t>S.05.01_113</t>
-  </si>
-  <si>
-    <t>S.06.03_100</t>
-  </si>
-  <si>
-    <t>S.17.01_119</t>
-  </si>
-  <si>
-    <t>S.28.01_100</t>
-  </si>
-  <si>
-    <t>S.28.01_104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -232,7 +233,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -270,7 +271,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -305,6 +306,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -340,9 +358,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,10 +550,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -534,207 +571,207 @@
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>

--- a/tests/data/unittest_testset_aanvullende_regels.xlsx
+++ b/tests/data/unittest_testset_aanvullende_regels.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan_h_000\Documents\DNB\Python\solvency2-rules\tests\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5712F9C-D0D0-418B-95D0-EF84C91D9E96}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3030" yWindow="3030" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3030" yWindow="3030" windowWidth="18000" windowHeight="9360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$3:$H$9</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -160,8 +154,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,9 +225,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Kantoor">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,9 +265,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Kantoor">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -305,27 +299,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,27 +333,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Kantoor">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -550,14 +508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:J10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -569,7 +527,7 @@
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
         <v>33</v>
       </c>
@@ -598,7 +556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -624,7 +582,7 @@
       </c>
       <c r="J3" s="1"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="1" customFormat="1">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -650,7 +608,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="1" customFormat="1">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -676,7 +634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="1" customFormat="1">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -702,7 +660,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="1" customFormat="1">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -728,7 +686,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="1" customFormat="1">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -751,7 +709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="1" customFormat="1">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -774,7 +732,6 @@
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
